--- a/data/Others-HF - 1.xlsx
+++ b/data/Others-HF - 1.xlsx
@@ -11,6 +11,10 @@
     <sheet name="BA" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="FA_verify" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="BA_verify" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FA_verify1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BA_verify1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="FA_verify2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BA_verify2" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -14686,6 +14690,3718 @@
           <t>Al</t>
         </is>
       </c>
+      <c r="B2" s="0" t="n">
+        <v>355.3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>17765</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>70.051261829653</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>364.6</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>18230</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>71.54631083202511</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>370.7</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>18535</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>72.94372294372295</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>17150</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>68.00158604282315</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>389.7</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>19485</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>75.69930069930069</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.09542586750788644</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.0998822605965463</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.09779614325068871</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.09892942109436956</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.09537684537684538</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="63" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>13055</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>51.47870662460569</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>13330</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>52.31554160125589</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>13760</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>54.15190869736325</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>12545</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>49.74226804123712</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>55.9052059052059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="63" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.0013801261829653</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.001569858712715855</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.001377410468319559</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.001586042823156225</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.00135975135975136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>61.45</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.2423107255520505</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>62.84999999999999</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.2466640502354787</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.2502951593860685</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>62.25000000000001</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.2468279143536876</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.2412587412587412</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="63" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7.475</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.47377760252366</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>385.9</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.514521193092621</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1.517119244391972</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>381.7</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.513481363996828</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>7.797</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>389.85</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1.514568764568764</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>37.38170347003155</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9660</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>37.91208791208791</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>9625</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>37.87878787878788</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>9730</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>38.58049167327518</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>9840</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>38.22843822843822</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="63" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>86.42</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4321</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>17.03864353312303</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>88.23</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4411.5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>17.31357927786499</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>88.03</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>4401.5</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>17.32192050373869</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4389.5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>17.40483743061063</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>91.45</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>4572.5</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>17.76418026418026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="63" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>58.86</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2943</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11.60488958990536</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>57.54</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2877</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>11.29120879120879</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2998</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>11.79850452577725</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2674.5</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>10.60467882632831</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3108</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>12.07459207459207</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="63" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>106.25</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.4189668769716088</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.4309262166405023</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.4279811097992915</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.4302141157811261</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.4257964257964258</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="63" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1894.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>7.470425867507887</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7.54905808477237</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>7.776465958284141</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1820</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>7.216494845360826</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>7.766122766122765</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="63" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.1880914826498422</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.1978021978021978</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.1995277449822905</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.2020222045995242</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.1928904428904429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="inlineStr">
+        <is>
+          <t>Pb</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.145307570977918</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.1485478806907378</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.1487603305785124</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.1500793021411578</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.1484071484071484</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>811.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>40575</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>159.9960567823344</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>814.7</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>40735</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>159.8704866562009</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>40500</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>159.3860684769776</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>850.4</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>42520</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>168.5963521015068</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>849</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>42450</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>164.9184149184149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3.972791798107255</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1044.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4.099293563579278</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1031.5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>4.059425423061787</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1016</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>4.028548770816813</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1038.5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>4.034576534576535</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="inlineStr">
+        <is>
+          <t>Zn</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>510.5000000000001</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2.01301261829653</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.056514913657771</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2.056277056277056</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2.071768437747819</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>2.047397047397047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="63" t="inlineStr">
+        <is>
+          <t>FA1 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="C1" s="63" t="inlineStr">
+        <is>
+          <t>FA1 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="D1" s="63" t="inlineStr">
+        <is>
+          <t>FA1 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="E1" s="63" t="inlineStr">
+        <is>
+          <t>FA2 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="F1" s="63" t="inlineStr">
+        <is>
+          <t>FA2 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="G1" s="63" t="inlineStr">
+        <is>
+          <t>FA2 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="H1" s="63" t="inlineStr">
+        <is>
+          <t>FA3 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="I1" s="63" t="inlineStr">
+        <is>
+          <t>FA3 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="J1" s="63" t="inlineStr">
+        <is>
+          <t>FA3 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="K1" s="63" t="inlineStr">
+        <is>
+          <t>FA4 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="L1" s="63" t="inlineStr">
+        <is>
+          <t>FA4 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="M1" s="63" t="inlineStr">
+        <is>
+          <t>FA4 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="N1" s="63" t="inlineStr">
+        <is>
+          <t>FA5 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="O1" s="63" t="inlineStr">
+        <is>
+          <t>FA5 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="P1" s="63" t="inlineStr">
+        <is>
+          <t>FA5 Conc.(mg/g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="63" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>348.1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>17405</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>67.72373540856032</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>357.8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>17890</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>69.91012114107073</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>248.9</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>12445</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>47.99460084843811</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>346.3</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>17315</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>69.14936102236422</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>16840</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>66.50868878357031</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.1143968871595331</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.1129347401328644</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.1110682607018897</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.115814696485623</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.1147314375987362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="63" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>13580</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>52.84046692607004</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>14005</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>54.7284095349746</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8915</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>34.38102583879676</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>13380</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>53.43450479233228</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>13055</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>51.56003159557663</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="63" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.004280155642023346</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.003907776475185619</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.003856536829926726</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.003793929712460064</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.003751974723538705</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.2920233463035019</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>74.35000000000001</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.2905431809300508</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.3035094485152334</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.2871405750798722</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>75.94999999999999</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.2999605055292259</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="63" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.536964980544747</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7.707</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>385.35</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.505861664712778</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>388.75</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1.499228692634015</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>7.467</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>373.35</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.491014376996805</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>7.741</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>387.05</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1.528633491311216</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>10695</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>41.6147859922179</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>40.25009769441188</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>41.53490165831084</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>10220</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>40.814696485623</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>10520</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>41.54818325434439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="63" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>73.34999999999999</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3667.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>14.2704280155642</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3609.5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>14.10511918718249</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3385</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>13.05437716930197</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>3588.5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>14.33107028753994</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>72.47</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>3623.5</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>14.3108214849921</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="63" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2758</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10.73151750972763</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2795</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10.9222352481438</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1844</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>7.111453914384884</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2709</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>10.81869009584664</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2533.5</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>10.00592417061612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="63" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.4867704280155641</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>121.65</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.4753810082063306</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.4828384111068261</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.4756389776357828</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2.473</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>123.65</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.488349131121643</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="63" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4.120622568093385</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1053.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4.11684251660805</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>947.0000000000001</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3.65214037794061</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1045.5</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>4.175319488817892</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1061</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>4.190363349131122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="63" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>64.64999999999999</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.251556420233463</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.2588901914810473</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.2581951407635943</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>61.85000000000001</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.2470047923322684</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.2565165876777252</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="inlineStr">
+        <is>
+          <t>Pb</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.09863813229571984</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.09398202422821415</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.09930582337061319</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.09424920127795526</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.09695892575039496</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>880.6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>171.3229571984436</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>850.9</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>42545</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>166.2563501367722</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>866.9</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>43345</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>167.1615888931739</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>862.3</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>43115</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>172.1845047923323</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>876.1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>43805</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>173.0055292259084</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1086.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4.227626459143969</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1078</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4.212583040250098</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1087.5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>4.193983802545314</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>4.155351437699681</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>4.227883096366509</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="inlineStr">
+        <is>
+          <t>Zn</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7.599</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>379.95</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1.4784046692607</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7.283</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>364.15</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.423016803438843</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>7.687</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>384.35</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1.482259930582337</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>356.95</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1.425519169329073</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1.4652448657188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="63" t="inlineStr">
+        <is>
+          <t>BA1 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="C1" s="63" t="inlineStr">
+        <is>
+          <t>BA1 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="D1" s="63" t="inlineStr">
+        <is>
+          <t>BA1 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="E1" s="63" t="inlineStr">
+        <is>
+          <t>BA2 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="F1" s="63" t="inlineStr">
+        <is>
+          <t>BA2 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="G1" s="63" t="inlineStr">
+        <is>
+          <t>BA2 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="H1" s="63" t="inlineStr">
+        <is>
+          <t>BA3 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="I1" s="63" t="inlineStr">
+        <is>
+          <t>BA3 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="J1" s="63" t="inlineStr">
+        <is>
+          <t>BA3 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="K1" s="63" t="inlineStr">
+        <is>
+          <t>BA4 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="L1" s="63" t="inlineStr">
+        <is>
+          <t>BA4 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="M1" s="63" t="inlineStr">
+        <is>
+          <t>BA4 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="N1" s="63" t="inlineStr">
+        <is>
+          <t>BA5 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="O1" s="63" t="inlineStr">
+        <is>
+          <t>BA5 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="P1" s="63" t="inlineStr">
+        <is>
+          <t>BA5 Conc.(mg/g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="63" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>355.3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>17765</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>70.051261829653</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>364.6</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>18230</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>71.54631083202511</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>370.7</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>18535</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>72.94372294372295</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>17150</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>68.00158604282315</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>389.7</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>19485</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>75.69930069930069</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.09542586750788644</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.0998822605965463</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.09779614325068871</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.09892942109436956</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.09537684537684538</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="63" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>13055</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>51.47870662460569</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>13330</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>52.31554160125589</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>275.2</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>13760</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>54.15190869736325</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>12545</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>49.74226804123712</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>14390</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>55.9052059052059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="63" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.0013801261829653</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.001569858712715855</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.001377410468319559</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.001586042823156225</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.00135975135975136</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.229</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>61.45</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.2423107255520505</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.257</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>62.84999999999999</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.2466640502354787</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.2502951593860685</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>62.25000000000001</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.2468279143536876</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.2412587412587412</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="63" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7.475</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.47377760252366</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7.718</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>385.9</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.514521193092621</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>385.5</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1.517119244391972</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>7.634</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>381.7</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.513481363996828</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>7.797</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>389.85</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1.514568764568764</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9480</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>37.38170347003155</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>9660</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>37.91208791208791</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>9625</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>37.87878787878788</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>9730</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>38.58049167327518</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>9840</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>38.22843822843822</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="63" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>86.42</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4321</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>17.03864353312303</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>88.23</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4411.5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>17.31357927786499</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>88.03</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>4401.5</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>17.32192050373869</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>87.79000000000001</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4389.5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>17.40483743061063</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>91.45</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>4572.5</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>17.76418026418026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="63" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>58.86</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2943</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11.60488958990536</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>57.54</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2877</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>11.29120879120879</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>2998</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>11.79850452577725</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2674.5</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>10.60467882632831</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>62.16</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3108</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>12.07459207459207</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="63" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>106.25</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.4189668769716088</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.4309262166405023</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.4279811097992915</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.4302141157811261</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.4257964257964258</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="63" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>37.89</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1894.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>7.470425867507887</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>38.47</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1923.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>7.54905808477237</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1976</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>7.776465958284141</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1820</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>7.216494845360826</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>39.98</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>7.766122766122765</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="63" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.1880914826498422</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.1978021978021978</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.1995277449822905</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.2020222045995242</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.1928904428904429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="inlineStr">
+        <is>
+          <t>Pb</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>36.85</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.145307570977918</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.1485478806907378</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.756</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.1487603305785124</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.1500793021411578</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.1484071484071484</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>811.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>40575</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>159.9960567823344</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>814.7</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>40735</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>159.8704866562009</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>40500</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>159.3860684769776</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>850.4</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>42520</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>168.5963521015068</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>849</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>42450</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>164.9184149184149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3.972791798107255</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1044.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4.099293563579278</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1031.5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>4.059425423061787</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1016</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>4.028548770816813</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1038.5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>4.034576534576535</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="inlineStr">
+        <is>
+          <t>Zn</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>510.5000000000001</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2.01301261829653</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.056514913657771</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2.056277056277056</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>2.071768437747819</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>2.047397047397047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="63" t="inlineStr">
+        <is>
+          <t>FA1 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="C1" s="63" t="inlineStr">
+        <is>
+          <t>FA1 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="D1" s="63" t="inlineStr">
+        <is>
+          <t>FA1 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="E1" s="63" t="inlineStr">
+        <is>
+          <t>FA2 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="F1" s="63" t="inlineStr">
+        <is>
+          <t>FA2 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="G1" s="63" t="inlineStr">
+        <is>
+          <t>FA2 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="H1" s="63" t="inlineStr">
+        <is>
+          <t>FA3 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="I1" s="63" t="inlineStr">
+        <is>
+          <t>FA3 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="J1" s="63" t="inlineStr">
+        <is>
+          <t>FA3 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="K1" s="63" t="inlineStr">
+        <is>
+          <t>FA4 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="L1" s="63" t="inlineStr">
+        <is>
+          <t>FA4 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="M1" s="63" t="inlineStr">
+        <is>
+          <t>FA4 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="N1" s="63" t="inlineStr">
+        <is>
+          <t>FA5 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="O1" s="63" t="inlineStr">
+        <is>
+          <t>FA5 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="P1" s="63" t="inlineStr">
+        <is>
+          <t>FA5 Conc.(mg/g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="63" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>348.1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>17405</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>67.72373540856032</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>357.8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>17890</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>69.91012114107073</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>248.9</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>12445</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>47.99460084843811</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>346.3</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>17315</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>69.14936102236422</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>336.8</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>16840</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>66.50868878357031</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.1143968871595331</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.1129347401328644</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.1110682607018897</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.115814696485623</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.1147314375987362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="63" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>271.6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>13580</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>52.84046692607004</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>14005</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>54.7284095349746</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8915</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>34.38102583879676</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>13380</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>53.43450479233228</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>13055</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>51.56003159557663</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="63" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.004280155642023346</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.003907776475185619</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.003856536829926726</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.003793929712460064</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.003751974723538705</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>75.05</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.2920233463035019</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>74.35000000000001</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.2905431809300508</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.3035094485152334</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.2871405750798722</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>75.94999999999999</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.2999605055292259</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="63" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1.536964980544747</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7.707</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>385.35</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.505861664712778</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>388.75</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1.499228692634015</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>7.467</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>373.35</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.491014376996805</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>7.741</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>387.05</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1.528633491311216</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>10695</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>41.6147859922179</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>40.25009769441188</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>41.53490165831084</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>204.4</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>10220</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>40.814696485623</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>210.4</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>10520</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>41.54818325434439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="63" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>73.34999999999999</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3667.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>14.2704280155642</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>3609.5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>14.10511918718249</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3385</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>13.05437716930197</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>71.77</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>3588.5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>14.33107028753994</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>72.47</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>3623.5</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>14.3108214849921</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="63" t="inlineStr">
+        <is>
+          <t>Mg</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2758</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10.73151750972763</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2795</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10.9222352481438</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>36.88</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1844</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>7.111453914384884</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>2709</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>10.81869009584664</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2533.5</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>10.00592417061612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="63" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.4867704280155641</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>121.65</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.4753810082063306</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.4828384111068261</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.4756389776357828</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>2.473</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>123.65</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.488349131121643</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="63" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1059</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4.120622568093385</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1053.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4.11684251660805</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>947.0000000000001</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3.65214037794061</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1045.5</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>4.175319488817892</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1061</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>4.190363349131122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="63" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>64.64999999999999</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.251556420233463</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.2588901914810473</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.2581951407635943</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>61.85000000000001</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.2470047923322684</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0.2565165876777252</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="inlineStr">
+        <is>
+          <t>Pb</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.09863813229571984</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.09398202422821415</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.09930582337061319</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.09424920127795526</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0.09695892575039496</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>880.6</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>171.3229571984436</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>850.9</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>42545</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>166.2563501367722</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>866.9</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>43345</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>167.1615888931739</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>862.3</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>43115</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>172.1845047923323</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>876.1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>43805</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>173.0055292259084</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1086.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>4.227626459143969</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1078</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4.212583040250098</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1087.5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>4.193983802545314</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1040.5</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>4.155351437699681</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1070.5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>4.227883096366509</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="inlineStr">
+        <is>
+          <t>Zn</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7.599</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>379.95</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1.4784046692607</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>7.283</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>364.15</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.423016803438843</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>7.687</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>384.35</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1.482259930582337</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>7.139</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>356.95</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>1.425519169329073</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1.4652448657188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="63" t="inlineStr">
+        <is>
+          <t>BA1 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="C1" s="63" t="inlineStr">
+        <is>
+          <t>BA1 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="D1" s="63" t="inlineStr">
+        <is>
+          <t>BA1 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="E1" s="63" t="inlineStr">
+        <is>
+          <t>BA2 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="F1" s="63" t="inlineStr">
+        <is>
+          <t>BA2 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="G1" s="63" t="inlineStr">
+        <is>
+          <t>BA2 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="H1" s="63" t="inlineStr">
+        <is>
+          <t>BA3 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="I1" s="63" t="inlineStr">
+        <is>
+          <t>BA3 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="J1" s="63" t="inlineStr">
+        <is>
+          <t>BA3 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="K1" s="63" t="inlineStr">
+        <is>
+          <t>BA4 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="L1" s="63" t="inlineStr">
+        <is>
+          <t>BA4 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="M1" s="63" t="inlineStr">
+        <is>
+          <t>BA4 Conc.(mg/g)</t>
+        </is>
+      </c>
+      <c r="N1" s="63" t="inlineStr">
+        <is>
+          <t>BA5 Conc.(mg/L)</t>
+        </is>
+      </c>
+      <c r="O1" s="63" t="inlineStr">
+        <is>
+          <t>BA5 Conc before diliton (mg/L)</t>
+        </is>
+      </c>
+      <c r="P1" s="63" t="inlineStr">
+        <is>
+          <t>BA5 Conc.(mg/g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="63" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
       <c r="B2" t="n">
         <v>355.3</v>
       </c>
